--- a/biology/Médecine/Valériane/Valériane.xlsx
+++ b/biology/Médecine/Valériane/Valériane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane</t>
+          <t>Valériane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valériane est le nom vernaculaire ambigu donné en français à environ 150 espèces de plantes de la famille des Valerianaceae, majoritairement du genre Valeriana.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane</t>
+          <t>Valériane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'un rapprochement étymologique soit possible, ce nom ne viendrait pas du latin valere, c'est-à-dire vaillant, valeureux mais de celui de la province romaine de Valeria, en Pannonie, une ancienne région de l'Europe centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'un rapprochement étymologique soit possible, ce nom ne viendrait pas du latin valere, c'est-à-dire vaillant, valeureux mais de celui de la province romaine de Valeria, en Pannonie, une ancienne région de l'Europe centrale.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane</t>
+          <t>Valériane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Physiologie et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des valérianes sont celles des Valerianaceae, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur description ou leur utilisation.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane</t>
+          <t>Valériane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Connue pour ses effets sur le sommeil, c'est l'espèce Valeriana officinalis qui est le plus fréquemment prescrite sous sa forme galénique SIPF (suspension intégrale de plantes fraîches)[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connue pour ses effets sur le sommeil, c'est l'espèce Valeriana officinalis qui est le plus fréquemment prescrite sous sa forme galénique SIPF (suspension intégrale de plantes fraîches),.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane</t>
+          <t>Valériane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,11 +622,13 @@
           <t>Liste d'espèces appelées « valériane »</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Note : Plusieurs noms peuvent correspondre à un ou plusieurs taxons.
-Grande Valériane - Valeriana phu[4]
-Valériane officinale - Valeriana officinalis L. ou Valériane des collines ou Valériane à petites feuilles ou Valériane sauvage[4]
+Grande Valériane - Valeriana phu
+Valériane officinale - Valeriana officinalis L. ou Valériane des collines ou Valériane à petites feuilles ou Valériane sauvage
 Valériane africaine - Fedia cornucopiae, ou corne d'abondance
 Valériane celtique - Valeriana celtica
 Valériane dioïque - Valeriana dioica
@@ -618,7 +638,7 @@
 Valériane des montagnes - Valeriana montana
 Valériane des prés - Valeriana pratensis
 Valériane rouge - Centranthus ruber
-Valériane des tourbières - Valeriana uliginosa[5]
+Valériane des tourbières - Valeriana uliginosa
 Valériane tubéreuse - Valeriana tuberosa</t>
         </is>
       </c>
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane</t>
+          <t>Valériane</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,10 +669,49 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prénom
-Valériane est un prénom révolutionnaire.
-Calendrier républicain
-La valériane voyait son nom attribué au 24e jour du mois de floréal du calendrier républicain[6], généralement chaque 13 mai du calendrier grégorien.
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Valériane est un prénom révolutionnaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Valériane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Val%C3%A9riane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valériane voyait son nom attribué au 24e jour du mois de floréal du calendrier républicain, généralement chaque 13 mai du calendrier grégorien.
 </t>
         </is>
       </c>
